--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Gdf1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>0.544276</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9591577789839493</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9591577789839494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>8.081962306714667</v>
+        <v>8.331812023089334</v>
       </c>
       <c r="R2">
-        <v>72.73766076043199</v>
+        <v>74.986308207804</v>
       </c>
       <c r="S2">
-        <v>0.3085128263790582</v>
+        <v>0.2952214434450784</v>
       </c>
       <c r="T2">
-        <v>0.3085128263790582</v>
+        <v>0.2952214434450785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.544276</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9591577789839493</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9591577789839494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
         <v>7.300016338192889</v>
@@ -638,10 +638,10 @@
         <v>65.700147043736</v>
       </c>
       <c r="S3">
-        <v>0.2786635952555802</v>
+        <v>0.2586617838426542</v>
       </c>
       <c r="T3">
-        <v>0.2786635952555802</v>
+        <v>0.2586617838426543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>0.544276</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9591577789839493</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9591577789839494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>3.657480534300444</v>
+        <v>4.282219818660889</v>
       </c>
       <c r="R4">
-        <v>32.917324808704</v>
+        <v>38.539978367948</v>
       </c>
       <c r="S4">
-        <v>0.13961704029799</v>
+        <v>0.1517320737086719</v>
       </c>
       <c r="T4">
-        <v>0.13961704029799</v>
+        <v>0.1517320737086719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>0.544276</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9591577789839493</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9591577789839494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>2.913263657148444</v>
+        <v>3.488181065496</v>
       </c>
       <c r="R5">
-        <v>26.219372914336</v>
+        <v>31.393629589464</v>
       </c>
       <c r="S5">
-        <v>0.1112080421493099</v>
+        <v>0.1235968653997176</v>
       </c>
       <c r="T5">
-        <v>0.1112080421493099</v>
+        <v>0.1235968653997176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.544276</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9591577789839493</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9591577789839494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>4.243796775391111</v>
+        <v>3.667356966596444</v>
       </c>
       <c r="R6">
-        <v>38.19417097851999</v>
+        <v>33.00621269936799</v>
       </c>
       <c r="S6">
-        <v>0.1619984959180618</v>
+        <v>0.1299456125878271</v>
       </c>
       <c r="T6">
-        <v>0.1619984959180618</v>
+        <v>0.1299456125878271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.007725333333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.023176</v>
+      </c>
+      <c r="I7">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="J7">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>45.924193</v>
+      </c>
+      <c r="N7">
+        <v>137.772579</v>
+      </c>
+      <c r="O7">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="P7">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="Q7">
+        <v>0.3547796989893334</v>
+      </c>
+      <c r="R7">
+        <v>3.193017290904001</v>
+      </c>
+      <c r="S7">
+        <v>0.01257092389391254</v>
+      </c>
+      <c r="T7">
+        <v>0.01257092389391254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.007725333333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.023176</v>
+      </c>
+      <c r="I8">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="J8">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N8">
+        <v>120.711086</v>
+      </c>
+      <c r="O8">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="P8">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="Q8">
+        <v>0.3108444587928889</v>
+      </c>
+      <c r="R8">
+        <v>2.797600129136001</v>
+      </c>
+      <c r="S8">
+        <v>0.01101416469279806</v>
+      </c>
+      <c r="T8">
+        <v>0.01101416469279806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.007725333333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.023176</v>
+      </c>
+      <c r="I9">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="J9">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.60320766666667</v>
+      </c>
+      <c r="N9">
+        <v>70.809623</v>
+      </c>
+      <c r="O9">
+        <v>0.1581930283351338</v>
+      </c>
+      <c r="P9">
+        <v>0.1581930283351339</v>
+      </c>
+      <c r="Q9">
+        <v>0.1823426469608889</v>
+      </c>
+      <c r="R9">
+        <v>1.641083822648</v>
+      </c>
+      <c r="S9">
+        <v>0.006460954626461906</v>
+      </c>
+      <c r="T9">
+        <v>0.006460954626461908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.007725333333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.023176</v>
+      </c>
+      <c r="I10">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="J10">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.226538</v>
+      </c>
+      <c r="N10">
+        <v>57.679614</v>
+      </c>
+      <c r="O10">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="P10">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="Q10">
+        <v>0.148531414896</v>
+      </c>
+      <c r="R10">
+        <v>1.336782734064</v>
+      </c>
+      <c r="S10">
+        <v>0.005262919828366224</v>
+      </c>
+      <c r="T10">
+        <v>0.005262919828366224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.007725333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.023176</v>
+      </c>
+      <c r="I11">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="J11">
+        <v>0.0408422210160507</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.21413933333333</v>
+      </c>
+      <c r="N11">
+        <v>60.64241799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="P11">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="Q11">
+        <v>0.1561609643964444</v>
+      </c>
+      <c r="R11">
+        <v>1.405448679568</v>
+      </c>
+      <c r="S11">
+        <v>0.005533257974511979</v>
+      </c>
+      <c r="T11">
+        <v>0.005533257974511979</v>
       </c>
     </row>
   </sheetData>
